--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b369ffec26b542bf/Documents/git tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC104893915B49EE5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A38AE51-416B-4CDC-A3EC-E64160126627}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104893915B49EE5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC00ED36-2F30-48AB-8BD7-18904CBBF7DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fejd</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>js</t>
+  </si>
+  <si>
+    <t>dgfdgfe</t>
+  </si>
+  <si>
+    <t>dsfsf</t>
   </si>
 </sst>
 </file>
@@ -92,6 +98,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,37 +367,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:I18"/>
+  <dimension ref="D5:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
